--- a/biology/Botanique/Salvatore_Brullo/Salvatore_Brullo.xlsx
+++ b/biology/Botanique/Salvatore_Brullo/Salvatore_Brullo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salvatore Brullo, né le 23 février 1947 à Modica en Italie, est professeur à l'Université de Catane depuis 1980 où il enseigne la botanique systématique. Il obtient un diplôme en sciences biologiques en 1969[1],[2],[3],[4],[5],[6],[7],[8],[9],[10],[11],[12],[13],[14],[15],[16],[17]. Pendant six ans, il a été directeur du Département de botanique de l'Université de Catane. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salvatore Brullo, né le 23 février 1947 à Modica en Italie, est professeur à l'Université de Catane depuis 1980 où il enseigne la botanique systématique. Il obtient un diplôme en sciences biologiques en 1969. Pendant six ans, il a été directeur du Département de botanique de l'Université de Catane. 
 Il a décrit de nombreuses espèces endémiques de Sicile, dont Allium franciniae, Allium lopadusanum, Campanula marcenoi, Chiliadenus bocconei, Desmazeria pignattii, Genista demarcoi, Helichrysum hyblaeum, Helichrysum melitense, Hyoseris frutescens, Limonium aegusae, Limonium lojaconoi, Limonium lopadusanum, Limonium lylibeum, Scilla dimartinoi, Silene hicesiae, Valantia calva. 
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1970. Vegetazione psammofila presso il Capo Isola delle Correnti, Sicilia sud-orientale. Catane
 1971. Vegetazione dei pantani litoranei della Sicilia sud-orientale e problema della conservazione dell'ambiente. Catane
